--- a/Ausgabe/plan.xlsx
+++ b/Ausgabe/plan.xlsx
@@ -39,7 +39,7 @@
     <t>ErfÃ¼llungsscore:</t>
   </si>
   <si>
-    <t>54.41%</t>
+    <t>54.3%</t>
   </si>
   <si>
     <t/>
